--- a/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
+++ b/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\SeleniumWorkSpace\DailyPricingAutomationTest\Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_Dailyfeed\DailyPricingAutomationTest\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03CB15C-275B-45FC-923F-EB4B6752B7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE5F9CD-BC84-4AA3-9F70-521AD5E76D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestModules" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
   <si>
     <t>Execution status</t>
   </si>
@@ -342,22 +342,68 @@
     <t>Test Name</t>
   </si>
   <si>
-    <t>07/19/2020 02:27:29</t>
-  </si>
-  <si>
-    <t>07/19/2020 03:02:04</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>B07C49F2LD</t>
+  </si>
+  <si>
+    <t>Amazon.com</t>
+  </si>
+  <si>
+    <t>B07H1B3PY9</t>
+  </si>
+  <si>
+    <t>B0002KVQBA</t>
+  </si>
+  <si>
+    <t>B00006BMQT</t>
+  </si>
+  <si>
+    <t>B07QQ87Y6M</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>279.0</t>
+  </si>
+  <si>
+    <t>229.0</t>
+  </si>
+  <si>
+    <t>129.0</t>
+  </si>
+  <si>
+    <t>149.99</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>222.0</t>
+  </si>
+  <si>
+    <t>800.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1163,19 +1209,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="48.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1194,9 +1240,6 @@
         <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1205,9 +1248,6 @@
         <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1235,16 +1275,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="6.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="65.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1404,22 +1444,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D8EF67-462A-4E5D-A512-4E2A231438FF}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="79.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="4.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="13.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="79.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="26.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1464,8 +1504,12 @@
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -1475,8 +1519,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -1486,8 +1534,12 @@
         <v>3</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -1497,8 +1549,12 @@
         <v>10</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -1508,8 +1564,12 @@
         <v>9</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -1527,8 +1587,12 @@
       <c r="D7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -1538,8 +1602,12 @@
         <v>5</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8"/>
-      <c r="F8"/>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -1549,8 +1617,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9"/>
-      <c r="F9"/>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -1560,8 +1632,12 @@
         <v>2</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10"/>
-      <c r="F10"/>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -1571,8 +1647,12 @@
         <v>6</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11"/>
-      <c r="F11"/>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -1590,8 +1670,12 @@
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E12"/>
-      <c r="F12"/>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -1601,8 +1685,12 @@
         <v>11</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13"/>
-      <c r="F13"/>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -1612,8 +1700,12 @@
         <v>10</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14"/>
-      <c r="F14"/>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -1623,8 +1715,12 @@
         <v>8</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15"/>
-      <c r="F15"/>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -1634,8 +1730,12 @@
         <v>9</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16"/>
-      <c r="F16"/>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -1653,8 +1753,12 @@
       <c r="D17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E17"/>
-      <c r="F17"/>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>111</v>
+      </c>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -1664,8 +1768,12 @@
         <v>3</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18"/>
-      <c r="F18"/>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -1675,8 +1783,12 @@
         <v>10</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19"/>
-      <c r="F19"/>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -1686,8 +1798,12 @@
         <v>11</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20"/>
-      <c r="F20"/>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -1697,8 +1813,12 @@
         <v>13</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21"/>
-      <c r="F21"/>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>

--- a/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
+++ b/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
   <si>
     <t>Execution status</t>
   </si>
@@ -379,24 +379,6 @@
   </si>
   <si>
     <t>129.0</t>
-  </si>
-  <si>
-    <t>149.99</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>222.0</t>
-  </si>
-  <si>
-    <t>800.0</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>150.0</t>
   </si>
 </sst>
 </file>
@@ -1632,12 +1614,8 @@
         <v>2</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" t="s">
-        <v>110</v>
-      </c>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -1647,12 +1625,8 @@
         <v>6</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" t="s">
-        <v>111</v>
-      </c>
+      <c r="E11"/>
+      <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -1670,12 +1644,8 @@
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" t="s">
-        <v>111</v>
-      </c>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -1685,12 +1655,8 @@
         <v>11</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" t="s">
-        <v>108</v>
-      </c>
+      <c r="E13"/>
+      <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -1700,12 +1666,8 @@
         <v>10</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
-      </c>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -1715,12 +1677,8 @@
         <v>8</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" t="s">
-        <v>112</v>
-      </c>
+      <c r="E15"/>
+      <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -1730,12 +1688,8 @@
         <v>9</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" t="s">
-        <v>113</v>
-      </c>
+      <c r="E16"/>
+      <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -1753,12 +1707,8 @@
       <c r="D17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" t="s">
-        <v>111</v>
-      </c>
+      <c r="E17"/>
+      <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -1768,12 +1718,8 @@
         <v>3</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s">
-        <v>111</v>
-      </c>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -1783,12 +1729,8 @@
         <v>10</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" t="s">
-        <v>114</v>
-      </c>
+      <c r="E19"/>
+      <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -1798,12 +1740,8 @@
         <v>11</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" t="s">
-        <v>115</v>
-      </c>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -1813,12 +1751,8 @@
         <v>13</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" t="s">
-        <v>111</v>
-      </c>
+      <c r="E21"/>
+      <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>

--- a/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
+++ b/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
   <si>
     <t>Execution status</t>
   </si>
@@ -370,15 +370,6 @@
   </si>
   <si>
     <t>NULL</t>
-  </si>
-  <si>
-    <t>279.0</t>
-  </si>
-  <si>
-    <t>229.0</t>
-  </si>
-  <si>
-    <t>129.0</t>
   </si>
 </sst>
 </file>
@@ -1569,12 +1560,8 @@
       <c r="D7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>107</v>
-      </c>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -1584,12 +1571,8 @@
         <v>5</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" t="s">
-        <v>108</v>
-      </c>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -1599,12 +1582,8 @@
         <v>3</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" t="s">
-        <v>109</v>
-      </c>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>

--- a/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
+++ b/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_Dailyfeed\DailyPricingAutomationTest\Repo\"/>
     </mc:Choice>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
   <si>
     <t>Execution status</t>
   </si>
@@ -346,37 +346,12 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>B07C49F2LD</t>
-  </si>
-  <si>
-    <t>Amazon.com</t>
-  </si>
-  <si>
-    <t>B07H1B3PY9</t>
-  </si>
-  <si>
-    <t>B0002KVQBA</t>
-  </si>
-  <si>
-    <t>B00006BMQT</t>
-  </si>
-  <si>
-    <t>B07QQ87Y6M</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1182,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C3"/>
@@ -1190,11 +1165,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="48.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,16 +1223,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="6.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="16.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="65.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="12.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
-    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="65.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1423,16 +1398,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="4.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="13.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="79.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="26.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="12.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
-    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="79.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1477,12 +1452,8 @@
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -1492,12 +1463,8 @@
         <v>2</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -1507,12 +1474,8 @@
         <v>3</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" t="s">
-        <v>101</v>
-      </c>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -1522,12 +1485,8 @@
         <v>10</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" t="s">
-        <v>101</v>
-      </c>
+      <c r="E5"/>
+      <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -1537,12 +1496,8 @@
         <v>9</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>

--- a/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
+++ b/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_Dailyfeed\DailyPricingAutomationTest\Repo\"/>
     </mc:Choice>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
   <si>
     <t>Execution status</t>
   </si>
@@ -346,12 +346,46 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>B07C49F2LD</t>
+  </si>
+  <si>
+    <t>Amazon.com</t>
+  </si>
+  <si>
+    <t>B07H1B3PY9</t>
+  </si>
+  <si>
+    <t>B0002KVQBA</t>
+  </si>
+  <si>
+    <t>B00006BMQT</t>
+  </si>
+  <si>
+    <t>B07QQ87Y6M</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>279.0</t>
+  </si>
+  <si>
+    <t>229.0</t>
+  </si>
+  <si>
+    <t>129.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1157,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C3"/>
@@ -1165,11 +1199,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="48.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1223,16 +1257,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="6.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="65.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1398,16 +1432,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="79.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="4.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="13.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="79.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="26.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,8 +1486,12 @@
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -1463,8 +1501,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -1474,8 +1516,12 @@
         <v>3</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -1485,8 +1531,12 @@
         <v>10</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -1496,8 +1546,12 @@
         <v>9</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -1515,8 +1569,12 @@
       <c r="D7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -1526,8 +1584,12 @@
         <v>5</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8"/>
-      <c r="F8"/>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -1537,8 +1599,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9"/>
-      <c r="F9"/>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>

--- a/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
+++ b/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="114">
   <si>
     <t>Execution status</t>
   </si>
@@ -379,6 +379,18 @@
   </si>
   <si>
     <t>129.0</t>
+  </si>
+  <si>
+    <t>149.99</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>222.0</t>
+  </si>
+  <si>
+    <t>800.0</t>
   </si>
 </sst>
 </file>
@@ -1614,8 +1626,12 @@
         <v>2</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10"/>
-      <c r="F10"/>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -1625,8 +1641,12 @@
         <v>6</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11"/>
-      <c r="F11"/>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -1644,8 +1664,12 @@
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E12"/>
-      <c r="F12"/>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -1655,8 +1679,12 @@
         <v>11</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13"/>
-      <c r="F13"/>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -1666,8 +1694,12 @@
         <v>10</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14"/>
-      <c r="F14"/>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -1677,8 +1709,12 @@
         <v>8</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15"/>
-      <c r="F15"/>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -1688,8 +1724,12 @@
         <v>9</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16"/>
-      <c r="F16"/>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>

--- a/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
+++ b/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="128">
   <si>
     <t>Execution status</t>
   </si>
@@ -391,6 +391,48 @@
   </si>
   <si>
     <t>800.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>499.0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>B07RR6X7N9</t>
+  </si>
+  <si>
+    <t>B00005T3BD</t>
+  </si>
+  <si>
+    <t>B00005T3C8</t>
+  </si>
+  <si>
+    <t>B00006I5O6</t>
+  </si>
+  <si>
+    <t>B0000WWP4M</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>07/20/2020 22:29:38</t>
   </si>
 </sst>
 </file>
@@ -1244,6 +1286,9 @@
       <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1504,9 +1549,13 @@
       <c r="F2" t="s">
         <v>101</v>
       </c>
-      <c r="G2"/>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
       <c r="H2"/>
-      <c r="I2"/>
+      <c r="I2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -1519,9 +1568,13 @@
       <c r="F3" t="s">
         <v>101</v>
       </c>
-      <c r="G3"/>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
       <c r="H3"/>
-      <c r="I3"/>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
@@ -1534,9 +1587,13 @@
       <c r="F4" t="s">
         <v>101</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
       <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1549,9 +1606,13 @@
       <c r="F5" t="s">
         <v>101</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
       <c r="H5"/>
-      <c r="I5"/>
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1564,9 +1625,13 @@
       <c r="F6" t="s">
         <v>106</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
       <c r="H6"/>
-      <c r="I6"/>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -1587,9 +1652,15 @@
       <c r="F7" t="s">
         <v>107</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -1602,9 +1673,15 @@
       <c r="F8" t="s">
         <v>108</v>
       </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1617,9 +1694,15 @@
       <c r="F9" t="s">
         <v>109</v>
       </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1632,9 +1715,15 @@
       <c r="F10" t="s">
         <v>110</v>
       </c>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+      <c r="G10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
@@ -1647,9 +1736,15 @@
       <c r="F11" t="s">
         <v>111</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -1670,9 +1765,15 @@
       <c r="F12" t="s">
         <v>111</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="G12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1685,9 +1786,15 @@
       <c r="F13" t="s">
         <v>108</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1700,9 +1807,15 @@
       <c r="F14" t="s">
         <v>111</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1715,9 +1828,15 @@
       <c r="F15" t="s">
         <v>112</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -1730,9 +1849,15 @@
       <c r="F16" t="s">
         <v>113</v>
       </c>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1747,55 +1872,105 @@
       <c r="D17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>10</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>11</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="22" spans="1:9" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1810,55 +1985,105 @@
       <c r="D22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>12</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>13</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="27" spans="1:9" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -1873,55 +2098,105 @@
       <c r="D27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
+      <c r="E27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>15</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>16</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="32" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
@@ -1936,55 +2211,105 @@
       <c r="D32" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>18</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>19</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="37" spans="1:9" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1999,55 +2324,105 @@
       <c r="D37" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
+      <c r="E37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
+      <c r="E38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>20</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
+      <c r="E39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>21</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2062,44 +2437,84 @@
       <c r="D42" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
+      <c r="E42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>22</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>23</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
+      <c r="E44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="46" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -2108,11 +2523,21 @@
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
+      <c r="E46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="47" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
@@ -2127,55 +2552,105 @@
       <c r="D47" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
+      <c r="E47" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="48" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>25</v>
       </c>
       <c r="D48" s="3"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" t="s">
+        <v>120</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="49" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="3"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="50" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="3"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="51" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>26</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
+      <c r="E51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="52" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
@@ -2190,44 +2665,84 @@
       <c r="D52" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
+      <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="53" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
+      <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="3"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
+      <c r="E54" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="55" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>28</v>
       </c>
       <c r="D55" s="3"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
+      <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="56" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
@@ -2236,11 +2751,21 @@
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
+      <c r="E56" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="57" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -2255,11 +2780,21 @@
       <c r="D57" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
+      <c r="E57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -2268,11 +2803,21 @@
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
+      <c r="E58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
@@ -2281,11 +2826,21 @@
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
+      <c r="E59" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="60" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
@@ -2294,11 +2849,21 @@
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
+      <c r="E60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -2307,11 +2872,21 @@
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
+      <c r="E61" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="62" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2326,55 +2901,105 @@
       <c r="D62" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
+      <c r="E62" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" t="s">
+        <v>111</v>
+      </c>
+      <c r="G62" t="s">
+        <v>111</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="63" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>32</v>
       </c>
       <c r="D63" s="3"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
+      <c r="E63" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63" t="s">
+        <v>108</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="64" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>33</v>
       </c>
       <c r="D64" s="3"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
+      <c r="E64" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" t="s">
+        <v>111</v>
+      </c>
+      <c r="G64" t="s">
+        <v>111</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="65" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
+      <c r="E65" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="66" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="3"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
+      <c r="E66" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="67" spans="1:9" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
@@ -2389,55 +3014,105 @@
       <c r="D67" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
+      <c r="E67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" t="s">
+        <v>111</v>
+      </c>
+      <c r="G67" t="s">
+        <v>111</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="68" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>35</v>
       </c>
       <c r="D68" s="3"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
+      <c r="E68" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" t="s">
+        <v>111</v>
+      </c>
+      <c r="G68" t="s">
+        <v>111</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="69" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="3"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
+      <c r="E69" t="s">
+        <v>103</v>
+      </c>
+      <c r="F69" t="s">
+        <v>114</v>
+      </c>
+      <c r="G69" t="s">
+        <v>114</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="70" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D70" s="3"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
+      <c r="E70" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="71" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>36</v>
       </c>
       <c r="D71" s="3"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
+      <c r="E71" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71" t="s">
+        <v>111</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="72" spans="1:9" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
@@ -2452,55 +3127,105 @@
       <c r="D72" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
+      <c r="E72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" t="s">
+        <v>116</v>
+      </c>
+      <c r="G72" t="s">
+        <v>116</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="73" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D73" s="3"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
+      <c r="E73" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" t="s">
+        <v>111</v>
+      </c>
+      <c r="G73" t="s">
+        <v>111</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="74" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
+      <c r="E74" t="s">
+        <v>103</v>
+      </c>
+      <c r="F74" t="s">
+        <v>111</v>
+      </c>
+      <c r="G74" t="s">
+        <v>111</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="75" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>38</v>
       </c>
       <c r="D75" s="3"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
+      <c r="E75" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75" t="s">
+        <v>111</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="76" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>39</v>
       </c>
       <c r="D76" s="3"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
+      <c r="E76" t="s">
+        <v>105</v>
+      </c>
+      <c r="F76" t="s">
+        <v>117</v>
+      </c>
+      <c r="G76" t="s">
+        <v>117</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="77" spans="1:9" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -2515,55 +3240,105 @@
       <c r="D77" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
+      <c r="E77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" t="s">
+        <v>107</v>
+      </c>
+      <c r="G77" t="s">
+        <v>107</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="78" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D78" s="3"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
+      <c r="E78" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" t="s">
+        <v>108</v>
+      </c>
+      <c r="G78" t="s">
+        <v>108</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="79" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>40</v>
       </c>
       <c r="D79" s="3"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
+      <c r="E79" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" t="s">
+        <v>111</v>
+      </c>
+      <c r="G79" t="s">
+        <v>111</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="80" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>41</v>
       </c>
       <c r="D80" s="3"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
+      <c r="E80" t="s">
+        <v>104</v>
+      </c>
+      <c r="F80" t="s">
+        <v>118</v>
+      </c>
+      <c r="G80" t="s">
+        <v>118</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="81" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D81" s="3"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
+      <c r="E81" t="s">
+        <v>105</v>
+      </c>
+      <c r="F81" t="s">
+        <v>119</v>
+      </c>
+      <c r="G81" t="s">
+        <v>119</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="82" spans="1:9" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2578,55 +3353,105 @@
       <c r="D82" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
+      <c r="E82" t="s">
+        <v>100</v>
+      </c>
+      <c r="F82" t="s">
+        <v>107</v>
+      </c>
+      <c r="G82" t="s">
+        <v>107</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="83" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>42</v>
       </c>
       <c r="D83" s="3"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
+      <c r="E83" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83" t="s">
+        <v>108</v>
+      </c>
+      <c r="G83" t="s">
+        <v>108</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="84" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>43</v>
       </c>
       <c r="D84" s="3"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
+      <c r="E84" t="s">
+        <v>103</v>
+      </c>
+      <c r="F84" t="s">
+        <v>109</v>
+      </c>
+      <c r="G84" t="s">
+        <v>109</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="85" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D85" s="3"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
+      <c r="E85" t="s">
+        <v>104</v>
+      </c>
+      <c r="F85" t="s">
+        <v>115</v>
+      </c>
+      <c r="G85" t="s">
+        <v>115</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="86" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D86" s="3"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
+      <c r="E86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F86" t="s">
+        <v>111</v>
+      </c>
+      <c r="G86" t="s">
+        <v>111</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="87" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
@@ -2641,55 +3466,105 @@
       <c r="D87" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
+      <c r="E87" t="s">
+        <v>100</v>
+      </c>
+      <c r="F87" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87" t="s">
+        <v>107</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="88" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>45</v>
       </c>
       <c r="D88" s="3"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
+      <c r="E88" t="s">
+        <v>102</v>
+      </c>
+      <c r="F88" t="s">
+        <v>108</v>
+      </c>
+      <c r="G88" t="s">
+        <v>108</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="89" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="3"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
+      <c r="E89" t="s">
+        <v>103</v>
+      </c>
+      <c r="F89" t="s">
+        <v>109</v>
+      </c>
+      <c r="G89" t="s">
+        <v>109</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="90" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D90" s="3"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
+      <c r="E90" t="s">
+        <v>104</v>
+      </c>
+      <c r="F90" t="s">
+        <v>115</v>
+      </c>
+      <c r="G90" t="s">
+        <v>115</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="91" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>46</v>
       </c>
       <c r="D91" s="3"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
+      <c r="E91" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" t="s">
+        <v>111</v>
+      </c>
+      <c r="G91" t="s">
+        <v>111</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="92" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
@@ -2704,11 +3579,21 @@
       <c r="D92" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
+      <c r="E92" t="s">
+        <v>122</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="93" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -2717,11 +3602,21 @@
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
+      <c r="E93" t="s">
+        <v>123</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="94" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -2730,11 +3625,21 @@
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
+      <c r="E94" t="s">
+        <v>104</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="95" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
@@ -2743,11 +3648,21 @@
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
+      <c r="E95" t="s">
+        <v>124</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="96" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
@@ -2756,11 +3671,21 @@
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
+      <c r="E96" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="97" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -2775,11 +3700,21 @@
       <c r="D97" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
+      <c r="E97" t="s">
+        <v>122</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="98" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -2788,11 +3723,21 @@
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
+      <c r="E98" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="99" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
@@ -2801,11 +3746,21 @@
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
+      <c r="E99" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" t="s">
+        <v>120</v>
+      </c>
+      <c r="G99" t="s">
+        <v>120</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="100" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
@@ -2814,11 +3769,21 @@
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
+      <c r="E100" t="s">
+        <v>124</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="101" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2827,11 +3792,21 @@
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
+      <c r="E101" t="s">
+        <v>125</v>
+      </c>
+      <c r="F101" t="s">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
+++ b/DailyPricingAutomationTest/Testcases/i2o_TestReport_SU.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_Dailyfeed\DailyPricingAutomationTest\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE5F9CD-BC84-4AA3-9F70-521AD5E76D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8096B11-9DBA-4F84-A4C7-A26920A0CD06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestModules" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
   <si>
     <t>Execution status</t>
   </si>
@@ -342,104 +342,13 @@
     <t>Test Name</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>B07C49F2LD</t>
-  </si>
-  <si>
-    <t>Amazon.com</t>
-  </si>
-  <si>
-    <t>B07H1B3PY9</t>
-  </si>
-  <si>
-    <t>B0002KVQBA</t>
-  </si>
-  <si>
-    <t>B00006BMQT</t>
-  </si>
-  <si>
-    <t>B07QQ87Y6M</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>279.0</t>
-  </si>
-  <si>
-    <t>229.0</t>
-  </si>
-  <si>
-    <t>129.0</t>
-  </si>
-  <si>
-    <t>149.99</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>222.0</t>
-  </si>
-  <si>
-    <t>800.0</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>280.0</t>
-  </si>
-  <si>
-    <t>500.0</t>
-  </si>
-  <si>
-    <t>450.0</t>
-  </si>
-  <si>
-    <t>499.0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>B07RR6X7N9</t>
-  </si>
-  <si>
-    <t>B00005T3BD</t>
-  </si>
-  <si>
-    <t>B00005T3C8</t>
-  </si>
-  <si>
-    <t>B00006I5O6</t>
-  </si>
-  <si>
-    <t>B0000WWP4M</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>07/20/2020 22:29:38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1245,19 +1154,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="48.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,10 +1193,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1314,16 +1220,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="6.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="16.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="65.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="12.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
-    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="65.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,22 +1389,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D8EF67-462A-4E5D-A512-4E2A231438FF}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="4.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="13.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="79.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="26.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="12.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="13.7109375" collapsed="true"/>
-    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="79.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1543,95 +1449,55 @@
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
-      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" t="s">
-        <v>126</v>
-      </c>
+      <c r="I2"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" t="s">
-        <v>101</v>
-      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" t="s">
-        <v>126</v>
-      </c>
+      <c r="I3"/>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" t="s">
-        <v>101</v>
-      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" t="s">
-        <v>126</v>
-      </c>
+      <c r="I4"/>
     </row>
     <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" t="s">
-        <v>126</v>
-      </c>
+      <c r="I5"/>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" t="s">
-        <v>106</v>
-      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" t="s">
-        <v>126</v>
-      </c>
+      <c r="I6"/>
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -1646,105 +1512,55 @@
       <c r="D7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>126</v>
-      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>5</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>126</v>
-      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
     </row>
     <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>126</v>
-      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
     </row>
     <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>126</v>
-      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
     </row>
     <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>6</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>126</v>
-      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
     </row>
     <row r="12" spans="1:9" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -1759,105 +1575,55 @@
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>126</v>
-      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
     </row>
     <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>126</v>
-      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
     </row>
     <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>126</v>
-      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
     </row>
     <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>8</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>126</v>
-      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
     </row>
     <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>9</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>126</v>
-      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1872,105 +1638,55 @@
       <c r="D17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>126</v>
-      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
     </row>
     <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>126</v>
-      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
     </row>
     <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>10</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>126</v>
-      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
     </row>
     <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>11</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>126</v>
-      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>126</v>
-      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
     </row>
     <row r="22" spans="1:9" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1985,105 +1701,55 @@
       <c r="D22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>126</v>
-      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
     </row>
     <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>12</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>126</v>
-      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>13</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>126</v>
-      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>126</v>
-      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>126</v>
-      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
     </row>
     <row r="27" spans="1:9" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -2098,105 +1764,55 @@
       <c r="D27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
-      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
     </row>
     <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>15</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>126</v>
-      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
     </row>
     <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>126</v>
-      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
     </row>
     <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>126</v>
-      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
     </row>
     <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>16</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>126</v>
-      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
     </row>
     <row r="32" spans="1:9" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
@@ -2211,105 +1827,55 @@
       <c r="D32" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>126</v>
-      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>126</v>
-      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
     </row>
     <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>126</v>
-      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
     </row>
     <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>18</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>126</v>
-      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>19</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>126</v>
-      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
     </row>
     <row r="37" spans="1:9" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2324,105 +1890,55 @@
       <c r="D37" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>126</v>
-      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>126</v>
-      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
     </row>
     <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>20</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>126</v>
-      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
     </row>
     <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>21</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>126</v>
-      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
     </row>
     <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>126</v>
-      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
     </row>
     <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2437,84 +1953,44 @@
       <c r="D42" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>126</v>
-      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
     </row>
     <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>22</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I43" t="s">
-        <v>126</v>
-      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
     </row>
     <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>23</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I44" t="s">
-        <v>126</v>
-      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
     </row>
     <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>126</v>
-      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
     </row>
     <row r="46" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -2523,21 +1999,11 @@
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
-      <c r="E46" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>126</v>
-      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
     </row>
     <row r="47" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
@@ -2552,105 +2018,55 @@
       <c r="D47" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E47" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" t="s">
-        <v>120</v>
-      </c>
-      <c r="G47" t="s">
-        <v>120</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>126</v>
-      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
     </row>
     <row r="48" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>25</v>
       </c>
       <c r="D48" s="3"/>
-      <c r="E48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" t="s">
-        <v>120</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I48" t="s">
-        <v>126</v>
-      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
     </row>
     <row r="49" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="3"/>
-      <c r="E49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I49" t="s">
-        <v>126</v>
-      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
     </row>
     <row r="50" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="3"/>
-      <c r="E50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I50" t="s">
-        <v>126</v>
-      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
     </row>
     <row r="51" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>26</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" t="s">
-        <v>120</v>
-      </c>
-      <c r="G51" t="s">
-        <v>120</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>126</v>
-      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
     </row>
     <row r="52" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
@@ -2665,84 +2081,44 @@
       <c r="D52" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" t="s">
-        <v>120</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>126</v>
-      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
     </row>
     <row r="53" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I53" t="s">
-        <v>126</v>
-      </c>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
     </row>
     <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="3"/>
-      <c r="E54" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I54" t="s">
-        <v>126</v>
-      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
     </row>
     <row r="55" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>28</v>
       </c>
       <c r="D55" s="3"/>
-      <c r="E55" t="s">
-        <v>104</v>
-      </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>126</v>
-      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
     </row>
     <row r="56" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
@@ -2751,21 +2127,11 @@
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
-      <c r="E56" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>120</v>
-      </c>
-      <c r="G56" t="s">
-        <v>120</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I56" t="s">
-        <v>126</v>
-      </c>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
     </row>
     <row r="57" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -2780,21 +2146,11 @@
       <c r="D57" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E57" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I57" t="s">
-        <v>126</v>
-      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
     </row>
     <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -2803,21 +2159,11 @@
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
-      <c r="E58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I58" t="s">
-        <v>126</v>
-      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
     </row>
     <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
@@ -2826,21 +2172,11 @@
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
-      <c r="E59" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" t="s">
-        <v>2</v>
-      </c>
-      <c r="G59" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I59" t="s">
-        <v>126</v>
-      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
     </row>
     <row r="60" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
@@ -2849,21 +2185,11 @@
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
-      <c r="E60" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I60" t="s">
-        <v>126</v>
-      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
     </row>
     <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -2872,21 +2198,11 @@
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
-      <c r="E61" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I61" t="s">
-        <v>126</v>
-      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
     </row>
     <row r="62" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2901,105 +2217,55 @@
       <c r="D62" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E62" t="s">
-        <v>100</v>
-      </c>
-      <c r="F62" t="s">
-        <v>111</v>
-      </c>
-      <c r="G62" t="s">
-        <v>111</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I62" t="s">
-        <v>126</v>
-      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
     </row>
     <row r="63" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>32</v>
       </c>
       <c r="D63" s="3"/>
-      <c r="E63" t="s">
-        <v>102</v>
-      </c>
-      <c r="F63" t="s">
-        <v>108</v>
-      </c>
-      <c r="G63" t="s">
-        <v>108</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I63" t="s">
-        <v>126</v>
-      </c>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
     </row>
     <row r="64" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>33</v>
       </c>
       <c r="D64" s="3"/>
-      <c r="E64" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64" t="s">
-        <v>111</v>
-      </c>
-      <c r="G64" t="s">
-        <v>111</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I64" t="s">
-        <v>126</v>
-      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
     </row>
     <row r="65" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65" t="s">
-        <v>104</v>
-      </c>
-      <c r="F65" t="s">
-        <v>112</v>
-      </c>
-      <c r="G65" t="s">
-        <v>112</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I65" t="s">
-        <v>126</v>
-      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
     </row>
     <row r="66" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="3"/>
-      <c r="E66" t="s">
-        <v>105</v>
-      </c>
-      <c r="F66" t="s">
-        <v>113</v>
-      </c>
-      <c r="G66" t="s">
-        <v>113</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I66" t="s">
-        <v>126</v>
-      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
     </row>
     <row r="67" spans="1:9" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
@@ -3014,105 +2280,55 @@
       <c r="D67" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E67" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67" t="s">
-        <v>111</v>
-      </c>
-      <c r="G67" t="s">
-        <v>111</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I67" t="s">
-        <v>126</v>
-      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
     </row>
     <row r="68" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>35</v>
       </c>
       <c r="D68" s="3"/>
-      <c r="E68" t="s">
-        <v>102</v>
-      </c>
-      <c r="F68" t="s">
-        <v>111</v>
-      </c>
-      <c r="G68" t="s">
-        <v>111</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I68" t="s">
-        <v>126</v>
-      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
     </row>
     <row r="69" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="3"/>
-      <c r="E69" t="s">
-        <v>103</v>
-      </c>
-      <c r="F69" t="s">
-        <v>114</v>
-      </c>
-      <c r="G69" t="s">
-        <v>114</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I69" t="s">
-        <v>126</v>
-      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
     </row>
     <row r="70" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D70" s="3"/>
-      <c r="E70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F70" t="s">
-        <v>115</v>
-      </c>
-      <c r="G70" t="s">
-        <v>115</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I70" t="s">
-        <v>126</v>
-      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
     </row>
     <row r="71" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>36</v>
       </c>
       <c r="D71" s="3"/>
-      <c r="E71" t="s">
-        <v>105</v>
-      </c>
-      <c r="F71" t="s">
-        <v>111</v>
-      </c>
-      <c r="G71" t="s">
-        <v>111</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I71" t="s">
-        <v>126</v>
-      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
     </row>
     <row r="72" spans="1:9" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
@@ -3127,105 +2343,55 @@
       <c r="D72" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E72" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" t="s">
-        <v>116</v>
-      </c>
-      <c r="G72" t="s">
-        <v>116</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I72" t="s">
-        <v>126</v>
-      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
     </row>
     <row r="73" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D73" s="3"/>
-      <c r="E73" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" t="s">
-        <v>111</v>
-      </c>
-      <c r="G73" t="s">
-        <v>111</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I73" t="s">
-        <v>126</v>
-      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
     </row>
     <row r="74" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" t="s">
-        <v>103</v>
-      </c>
-      <c r="F74" t="s">
-        <v>111</v>
-      </c>
-      <c r="G74" t="s">
-        <v>111</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I74" t="s">
-        <v>126</v>
-      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
     </row>
     <row r="75" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>38</v>
       </c>
       <c r="D75" s="3"/>
-      <c r="E75" t="s">
-        <v>104</v>
-      </c>
-      <c r="F75" t="s">
-        <v>111</v>
-      </c>
-      <c r="G75" t="s">
-        <v>111</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I75" t="s">
-        <v>126</v>
-      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
     </row>
     <row r="76" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>39</v>
       </c>
       <c r="D76" s="3"/>
-      <c r="E76" t="s">
-        <v>105</v>
-      </c>
-      <c r="F76" t="s">
-        <v>117</v>
-      </c>
-      <c r="G76" t="s">
-        <v>117</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I76" t="s">
-        <v>126</v>
-      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
     </row>
     <row r="77" spans="1:9" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -3240,105 +2406,55 @@
       <c r="D77" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E77" t="s">
-        <v>100</v>
-      </c>
-      <c r="F77" t="s">
-        <v>107</v>
-      </c>
-      <c r="G77" t="s">
-        <v>107</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I77" t="s">
-        <v>126</v>
-      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
     </row>
     <row r="78" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D78" s="3"/>
-      <c r="E78" t="s">
-        <v>102</v>
-      </c>
-      <c r="F78" t="s">
-        <v>108</v>
-      </c>
-      <c r="G78" t="s">
-        <v>108</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>126</v>
-      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
     </row>
     <row r="79" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>40</v>
       </c>
       <c r="D79" s="3"/>
-      <c r="E79" t="s">
-        <v>103</v>
-      </c>
-      <c r="F79" t="s">
-        <v>111</v>
-      </c>
-      <c r="G79" t="s">
-        <v>111</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I79" t="s">
-        <v>126</v>
-      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
     </row>
     <row r="80" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>41</v>
       </c>
       <c r="D80" s="3"/>
-      <c r="E80" t="s">
-        <v>104</v>
-      </c>
-      <c r="F80" t="s">
-        <v>118</v>
-      </c>
-      <c r="G80" t="s">
-        <v>118</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I80" t="s">
-        <v>126</v>
-      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
     </row>
     <row r="81" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D81" s="3"/>
-      <c r="E81" t="s">
-        <v>105</v>
-      </c>
-      <c r="F81" t="s">
-        <v>119</v>
-      </c>
-      <c r="G81" t="s">
-        <v>119</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I81" t="s">
-        <v>126</v>
-      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
     </row>
     <row r="82" spans="1:9" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -3353,105 +2469,55 @@
       <c r="D82" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E82" t="s">
-        <v>100</v>
-      </c>
-      <c r="F82" t="s">
-        <v>107</v>
-      </c>
-      <c r="G82" t="s">
-        <v>107</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I82" t="s">
-        <v>126</v>
-      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
     </row>
     <row r="83" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>42</v>
       </c>
       <c r="D83" s="3"/>
-      <c r="E83" t="s">
-        <v>102</v>
-      </c>
-      <c r="F83" t="s">
-        <v>108</v>
-      </c>
-      <c r="G83" t="s">
-        <v>108</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I83" t="s">
-        <v>126</v>
-      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
     </row>
     <row r="84" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>43</v>
       </c>
       <c r="D84" s="3"/>
-      <c r="E84" t="s">
-        <v>103</v>
-      </c>
-      <c r="F84" t="s">
-        <v>109</v>
-      </c>
-      <c r="G84" t="s">
-        <v>109</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I84" t="s">
-        <v>126</v>
-      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
     </row>
     <row r="85" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D85" s="3"/>
-      <c r="E85" t="s">
-        <v>104</v>
-      </c>
-      <c r="F85" t="s">
-        <v>115</v>
-      </c>
-      <c r="G85" t="s">
-        <v>115</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I85" t="s">
-        <v>126</v>
-      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
     </row>
     <row r="86" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D86" s="3"/>
-      <c r="E86" t="s">
-        <v>105</v>
-      </c>
-      <c r="F86" t="s">
-        <v>111</v>
-      </c>
-      <c r="G86" t="s">
-        <v>111</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>126</v>
-      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
     </row>
     <row r="87" spans="1:9" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
@@ -3466,105 +2532,55 @@
       <c r="D87" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E87" t="s">
-        <v>100</v>
-      </c>
-      <c r="F87" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" t="s">
-        <v>107</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I87" t="s">
-        <v>126</v>
-      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
     </row>
     <row r="88" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>45</v>
       </c>
       <c r="D88" s="3"/>
-      <c r="E88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F88" t="s">
-        <v>108</v>
-      </c>
-      <c r="G88" t="s">
-        <v>108</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I88" t="s">
-        <v>126</v>
-      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
     </row>
     <row r="89" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="3"/>
-      <c r="E89" t="s">
-        <v>103</v>
-      </c>
-      <c r="F89" t="s">
-        <v>109</v>
-      </c>
-      <c r="G89" t="s">
-        <v>109</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I89" t="s">
-        <v>126</v>
-      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
     </row>
     <row r="90" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D90" s="3"/>
-      <c r="E90" t="s">
-        <v>104</v>
-      </c>
-      <c r="F90" t="s">
-        <v>115</v>
-      </c>
-      <c r="G90" t="s">
-        <v>115</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I90" t="s">
-        <v>126</v>
-      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
     </row>
     <row r="91" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>46</v>
       </c>
       <c r="D91" s="3"/>
-      <c r="E91" t="s">
-        <v>105</v>
-      </c>
-      <c r="F91" t="s">
-        <v>111</v>
-      </c>
-      <c r="G91" t="s">
-        <v>111</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I91" t="s">
-        <v>126</v>
-      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
     </row>
     <row r="92" spans="1:9" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
@@ -3579,21 +2595,11 @@
       <c r="D92" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E92" t="s">
-        <v>122</v>
-      </c>
-      <c r="F92" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I92" t="s">
-        <v>126</v>
-      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
     </row>
     <row r="93" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -3602,21 +2608,11 @@
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
-      <c r="E93" t="s">
-        <v>123</v>
-      </c>
-      <c r="F93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" t="s">
-        <v>9</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I93" t="s">
-        <v>126</v>
-      </c>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
     </row>
     <row r="94" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -3625,21 +2621,11 @@
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
-      <c r="E94" t="s">
-        <v>104</v>
-      </c>
-      <c r="F94" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I94" t="s">
-        <v>126</v>
-      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
     </row>
     <row r="95" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
@@ -3648,21 +2634,11 @@
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
-      <c r="E95" t="s">
-        <v>124</v>
-      </c>
-      <c r="F95" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I95" t="s">
-        <v>126</v>
-      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
     </row>
     <row r="96" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
@@ -3671,21 +2647,11 @@
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
-      <c r="E96" t="s">
-        <v>125</v>
-      </c>
-      <c r="F96" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" t="s">
-        <v>8</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I96" t="s">
-        <v>126</v>
-      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
     </row>
     <row r="97" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -3700,21 +2666,11 @@
       <c r="D97" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E97" t="s">
-        <v>122</v>
-      </c>
-      <c r="F97" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" t="s">
-        <v>9</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I97" t="s">
-        <v>126</v>
-      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
     </row>
     <row r="98" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -3723,21 +2679,11 @@
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
-      <c r="E98" t="s">
-        <v>123</v>
-      </c>
-      <c r="F98" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" t="s">
-        <v>9</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I98" t="s">
-        <v>126</v>
-      </c>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
     </row>
     <row r="99" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
@@ -3746,21 +2692,11 @@
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
-      <c r="E99" t="s">
-        <v>104</v>
-      </c>
-      <c r="F99" t="s">
-        <v>120</v>
-      </c>
-      <c r="G99" t="s">
-        <v>120</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I99" t="s">
-        <v>126</v>
-      </c>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
     </row>
     <row r="100" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
@@ -3769,21 +2705,11 @@
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
-      <c r="E100" t="s">
-        <v>124</v>
-      </c>
-      <c r="F100" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100" t="s">
-        <v>9</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I100" t="s">
-        <v>126</v>
-      </c>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
     </row>
     <row r="101" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -3792,21 +2718,11 @@
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
-      <c r="E101" t="s">
-        <v>125</v>
-      </c>
-      <c r="F101" t="s">
-        <v>2</v>
-      </c>
-      <c r="G101" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I101" t="s">
-        <v>126</v>
-      </c>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
